--- a/Kiến-trúc-máy-tính.xlsx
+++ b/Kiến-trúc-máy-tính.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="623">
   <si>
     <r>
       <t xml:space="preserve">Câu 1: </t>
@@ -11005,9 +11005,6 @@
     <t>B. 80286</t>
   </si>
   <si>
-    <t>A. 16 B.  20 *</t>
-  </si>
-  <si>
     <r>
       <t>C.</t>
     </r>
@@ -11101,6 +11098,52 @@
   </si>
   <si>
     <r>
+      <t>A.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Điều khiển việc truyền dữ liệu giữa bộ nhớ Cache và thiết bị ngoại  vi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Điều khiển việc truyền dữ liệu giữa bộ nhớ Cache và bộ nhớ  ROM</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>C.</t>
     </r>
     <r>
@@ -11119,7 +11162,30 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>24 D. 30 *</t>
+      <t>Điều khiển việc truyền dữ liệu giữa bộ nhớ Cache và bộ nhớ RAM  *</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Điều khiển việc truyền dữ liệu giữa bộ nhớ Cache và khối  ALU</t>
     </r>
   </si>
   <si>
@@ -11142,7 +11208,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Điều khiển việc truyền dữ liệu giữa bộ nhớ Cache và thiết bị ngoại  vi</t>
+      <t>16 KByte</t>
     </r>
   </si>
   <si>
@@ -11165,7 +11231,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Điều khiển việc truyền dữ liệu giữa bộ nhớ Cache và bộ nhớ  ROM</t>
+      <t>32 KByte</t>
     </r>
   </si>
   <si>
@@ -11188,7 +11254,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Điều khiển việc truyền dữ liệu giữa bộ nhớ Cache và bộ nhớ RAM  *</t>
+      <t>64 Kbyte *</t>
     </r>
   </si>
   <si>
@@ -11211,7 +11277,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Điều khiển việc truyền dữ liệu giữa bộ nhớ Cache và khối  ALU</t>
+      <t>128 KByte</t>
     </r>
   </si>
   <si>
@@ -11234,7 +11300,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>16 KByte</t>
+      <t>Trong việc truyền số liệu giữa bộ điều khiển ổ đĩa và bộ nhớ  *</t>
     </r>
   </si>
   <si>
@@ -11257,7 +11323,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>32 KByte</t>
+      <t>Trong việc truyền số liệu giữa khối ALU và bộ nhớ</t>
     </r>
   </si>
   <si>
@@ -11280,7 +11346,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>64 Kbyte *</t>
+      <t>Trong việc truyền số liệu giữa các thanh ghi và bộ nhớ</t>
     </r>
   </si>
   <si>
@@ -11303,54 +11369,1174 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>128 KByte</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Trong việc truyền số liệu giữa bộ điều khiển ổ đĩa và bộ nhớ  *</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>B.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Trong việc truyền số liệu giữa khối ALU và bộ nhớ</t>
-    </r>
+      <t>Xác lập các tham số của BIOS</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">C. 4 * </t>
+  </si>
+  <si>
+    <t>D. 4,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 3 </t>
+  </si>
+  <si>
+    <t>B. 3,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.  4 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 71: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trong cấu trúc bộ nhớ dạng 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>M, phát biểu nào dưới đây  đúng?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 72: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Khái niệm truy xuất ngẫu nhiên đối với bộ nhớ có ý nghĩa như thế  nào?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 73: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trong bộ nhớ ROM, thời gian truy nhập đối với ngăn nhớ có địa chỉ  00000H so với thời gian truy nhập đối với ngăn nhớ có địa chỉ 00FFFH như thế nào?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 74: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trong bộ nhớ RAM, thời gian truy nhập đối với ngăn nhớ có địa chỉ  00000H so với thời gian truy nhập đối với ngăn nhớ có địa chỉ FFFFFH như thế nào?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 75: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Các bộ nhớ nào sau đây cho phép truy nhập ngẫu  nhiên?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 76: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đặc điểm của bộ nhớ Cache là:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 77: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đặc điểm của bộ nhớ Cache là:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 78: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Chức năng của tín hiệu Chip Enable trong IC bộ nhớ là  gì?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 79: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đặc điểm của bộ nhớ ROM:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 80: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đặc điểm của bộ nhớ RAM nói chung</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Câu 81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Đặc điểm của bộ nhớ SRAM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Câu 82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Đặc điểm của bộ nhớ DRAM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 83: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bộ nhớ Cache được cấu trúc từ loại bộ nhớ nào trong số các bộ nhớ sau đây?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 84: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Chức năng của bộ nhớ Cache trong máy tính là gì?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 85: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đường dây Read/Write trong IC bộ nhớ có chức năng là  gì?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 86: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trong các bộ nhớ sau, bộ nhớ nào yêu cầu làm tươi theo chu  kỳ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 87: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trong các bộ nhớ SRAM và DRAM, loại nào tiêu thụ nguồn nuôi lớn   hơn?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 88: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đặc điểm của bộ nhớ ROM là:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 89: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Phát biểu nào sau đây đúng?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Câu 90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Mạch chọn địa chỉ hàng và mạch chọn địa chỉ cột tạo thành mạch  gì?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 91: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cấu tạo của một ô nhớ DRAM như thế nào?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 92: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cấu tạo của một ô nhớ SRAM như thế nào?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 93: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tốc độ truy nhập của bộ nhớ SRAM so với bộ nhớ DRAM như thế  nào?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 94: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đối với bộ nhớ truy nhập ngẫu nhiên, điều nào sau đây  đúng?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 95: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đối với bộ nhớ truy nhập ngẫu nhiên, điều nào sau đây không  đúng?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 96: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đối với bộ nhớ SRAM, điều nào sau đây đúng?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 97: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đối với bộ nhớ SRAM, điều nào sau đây không  đúng?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 98: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đối với bộ nhớ ROM, điều nào sau đây đúng?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 99: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đối với bộ nhớ ROM, điều nào sau đây không đúng?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 100: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trong các phát biểu sau, phát biểu nào đúng?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 101: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Chương trình BIOS được lưu trữ trong bộ nhớ thuộc loại  nào?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 102: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Dung lượng của bộ nhớ được xác định bởi:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 103:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thời gian truy nhập bộ nhớ được tính bằng:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 104: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bus địa chỉ 20 bit cho phép quản lý bộ nhớ với dung lượng tối đa bằng   bao nhiêu?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 105: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bus địa chỉ 32 bit cho phép quản lý bộ nhớ với dung lượng tối đa bằng   bao nhiêu?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 106: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bus địa chỉ 24 bit cho phép quản lý bộ nhớ với dung lượng tối đa bằng   bao nhiêu?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 107: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Chương trình BIOS trong các máy tính hiện đại thường được lưu trữ trong bộ nhớ loại nào?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 108: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đặc điểm của ROM mặt nạ (Maskable ROM) là  gì?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 109: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đặc điểm của PROM là gì?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 110: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đặc điểm của EPROM là gì?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 111: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đặc điểm của EEPROM là gì?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Câu 112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Loại ROM nào mà người dùng có thể nạp dữ liệu bằng thiết bị đốt  ROM?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Câu 113</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Loại ROM nào đã được nhà sản xuất nạp sẵn dữ liệu, người dùng không  thể thay đổi dữ liệu?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Câu 114</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Loại ROM nào mà dùng có thể nạp dữ liệu bằng thiết bị sử dụng tia cực tím?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Câu 115</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Loại ROM nào mà dùng có thể nạp dữ liệu bằng  điện?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 116: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trong các máy tính hiện đại, thiết bị nhớ nào trong số các loại bộ nhớ sau thường có dung lượng nhỏ nhất?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Câu 117</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Trong các máy tính hiện đại, thiết bị nhớ nào trong số các loại bộ nhớ sau thường có dung lượng lớn nhất?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 118: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trong các máy tính hiện đại, thiết bị nhớ nào trong số các loại bộ nhớ sau có thời gian truy nhập nhỏ nhất?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 119: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trong các máy tính hiện đại, thiết bị nhớ nào trong số các loại bộ nhớ sau có tốc độ truy nhập thấp nhất?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 120: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Chương trình BIOS lưu trong ROM CMOS được gọi  là:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 121: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Địa chỉ OFFSET trong bộ vi xử lý Intel 8086 có kích thước bằng bao nhiêu?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Câu 122</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Dung lượng bộ nhớ Cache của máy tính sử dụng Bộ vi xử lý 80386 bằng bao nhiêu?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Câu 123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Phát biểu nào sau đây đúng?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 124: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Phát biểu nào sau đây đúng?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 125: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bộ nhớ SRAM lưu trữ thông tin bằng gì?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 126: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bộ nhớ DRAM cần các mạch bên ngoài để thực hiện chức năng  gì?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 127: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Một bộ nhớ 64 Kbit có thể được tổ chức theo kiểu  nào?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Câu 128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Tại sao bộ nhớ DRAM phải được làm tươi?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 129: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tại sao với các hệ thống bộ nhớ dung lượng rất nhỏ, người ta không sử dụng bộ nhớ loại DRAM mà thường dùng loại  SRAM?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 131: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cơ chế quản lý bộ nhớ ảo trong máy tính sử dụng các bộ vi xử lý Intel 80x86 cho phép thực hiện các điều sau, loại trừ:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Câu 130</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Bộ nhớ DRAM lưu trữ thông tin bằng gì?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Câu 132</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Trong chế độ địa  chỉ ảo, bộ vi xử lý Intel 80286 có thể quản lý được  không gian nhớ có dung lượng bằng bao nhiêu?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 133: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trong chế độ địa chỉ ảo của các bộ vi xử lý Intel 80x86, việc truy nhập dữ liệu trên các bộ nhớ ngoài có dung lượng vượt quá bộ nhớ thực của máy tính được thực hiện nhờ:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 134: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trong chế độ địa chỉ ảo của các bộ vi xử lý Intel 80x86, dữ liệu cần truy nhập trên các bộ nhớ ngoài được tráo đổi với:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 135: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Các bộ nhớ RAM-ROM khác với các bộ nhớ ngoài ở những điều sau,  ngoại trừ:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 136:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hãy chỉ ra khẳng định sai trong các khẳng định sau  đây:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 137:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đặc điểm của bộ nhớ ngoài so với bộ nhớ trong của máy tính  là:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 138: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Một ưu điểm của bộ nhớ ngoài so với bộ nhớ trong của máy tính  là:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 139: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>So với bộ nhớ trong, bộ nhớ ngoài của máy tính có ưu điểm  là:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Câu 140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Để lưu trữ số hexa FF cần sử dụng tối thiểu bao nhiêu  Flip-Flop?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 141: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đơn vị quản lý bộ nhớ trong máy tính có thể là:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Câu 142</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Bộ vi xử lý nào sau đây của Intel hỗ trợ chế độ quản lý bộ nhớ ảo?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 143: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bộ vi xử lý nào sau đây của Intel không hỗ trợ chế độ quản lý bộ nhớ  ảo?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Câu 144</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Trong chế độ địa chỉ thực, bộ vi xử lý Intel 80286 quản lý địa chỉ vật lý  bao nhiêu bit?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 145: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trong chế độ địa chỉ ảo, bộ vi xử lý Intel 80286 quản lý địa chỉ logic bao nhiêu bit?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 146: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thanh ghi quản lý quản lý mảng nhớ trong bộ vi xử lý Intel 8086 có độ rộng bằng bao nhiêu?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 147: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Địa chỉ OFFSET của bộ vi xử lý Intel 8086 có độ rộng gồm bao nhiêu  bit?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 148: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Khối điều khiển bộ nhớ Cache (Cache Memory Controller) có chức năng là:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 149: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Một mảng nhớ trong bộ xi xử lý 8086/8088 do các thanh ghi mảng quản    lý có kích thước bằng bao nhiêu bằng bao nhiêu?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Câu 150: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bộ điều khiển DMA (DMAC) tham gia quản lý bộ nhớ trong trường hợp nào?</t>
+    </r>
+  </si>
+  <si>
+    <t>C. 9K × 8 C.  16K × 5</t>
   </si>
   <si>
     <r>
@@ -11372,1197 +12558,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Trong việc truyền số liệu giữa các thanh ghi và bộ nhớ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Xác lập các tham số của BIOS</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">C. 4 * </t>
-  </si>
-  <si>
-    <t>D. 4,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. 3 </t>
-  </si>
-  <si>
-    <t>B. 3,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.  4 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 71: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Trong cấu trúc bộ nhớ dạng 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>M, phát biểu nào dưới đây  đúng?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 72: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Khái niệm truy xuất ngẫu nhiên đối với bộ nhớ có ý nghĩa như thế  nào?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 73: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Trong bộ nhớ ROM, thời gian truy nhập đối với ngăn nhớ có địa chỉ  00000H so với thời gian truy nhập đối với ngăn nhớ có địa chỉ 00FFFH như thế nào?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 74: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Trong bộ nhớ RAM, thời gian truy nhập đối với ngăn nhớ có địa chỉ  00000H so với thời gian truy nhập đối với ngăn nhớ có địa chỉ FFFFFH như thế nào?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 75: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Các bộ nhớ nào sau đây cho phép truy nhập ngẫu  nhiên?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 76: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đặc điểm của bộ nhớ Cache là:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 77: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đặc điểm của bộ nhớ Cache là:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 78: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Chức năng của tín hiệu Chip Enable trong IC bộ nhớ là  gì?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 79: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đặc điểm của bộ nhớ ROM:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 80: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đặc điểm của bộ nhớ RAM nói chung</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Câu 81</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Đặc điểm của bộ nhớ SRAM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Câu 82</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Đặc điểm của bộ nhớ DRAM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 83: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bộ nhớ Cache được cấu trúc từ loại bộ nhớ nào trong số các bộ nhớ sau đây?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 84: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Chức năng của bộ nhớ Cache trong máy tính là gì?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 85: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đường dây Read/Write trong IC bộ nhớ có chức năng là  gì?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 86: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Trong các bộ nhớ sau, bộ nhớ nào yêu cầu làm tươi theo chu  kỳ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 87: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Trong các bộ nhớ SRAM và DRAM, loại nào tiêu thụ nguồn nuôi lớn   hơn?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 88: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đặc điểm của bộ nhớ ROM là:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 89: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Phát biểu nào sau đây đúng?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Câu 90</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Mạch chọn địa chỉ hàng và mạch chọn địa chỉ cột tạo thành mạch  gì?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 91: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cấu tạo của một ô nhớ DRAM như thế nào?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 92: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cấu tạo của một ô nhớ SRAM như thế nào?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 93: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Tốc độ truy nhập của bộ nhớ SRAM so với bộ nhớ DRAM như thế  nào?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 94: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đối với bộ nhớ truy nhập ngẫu nhiên, điều nào sau đây  đúng?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 95: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đối với bộ nhớ truy nhập ngẫu nhiên, điều nào sau đây không  đúng?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 96: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đối với bộ nhớ SRAM, điều nào sau đây đúng?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 97: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đối với bộ nhớ SRAM, điều nào sau đây không  đúng?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 98: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đối với bộ nhớ ROM, điều nào sau đây đúng?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 99: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đối với bộ nhớ ROM, điều nào sau đây không đúng?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 100: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Trong các phát biểu sau, phát biểu nào đúng?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 101: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Chương trình BIOS được lưu trữ trong bộ nhớ thuộc loại  nào?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 102: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Dung lượng của bộ nhớ được xác định bởi:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 103:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Thời gian truy nhập bộ nhớ được tính bằng:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 104: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bus địa chỉ 20 bit cho phép quản lý bộ nhớ với dung lượng tối đa bằng   bao nhiêu?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 105: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bus địa chỉ 32 bit cho phép quản lý bộ nhớ với dung lượng tối đa bằng   bao nhiêu?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 106: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bus địa chỉ 24 bit cho phép quản lý bộ nhớ với dung lượng tối đa bằng   bao nhiêu?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 107: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Chương trình BIOS trong các máy tính hiện đại thường được lưu trữ trong bộ nhớ loại nào?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 108: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đặc điểm của ROM mặt nạ (Maskable ROM) là  gì?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 109: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đặc điểm của PROM là gì?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 110: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đặc điểm của EPROM là gì?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 111: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đặc điểm của EEPROM là gì?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Câu 112</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Loại ROM nào mà người dùng có thể nạp dữ liệu bằng thiết bị đốt  ROM?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Câu 113</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Loại ROM nào đã được nhà sản xuất nạp sẵn dữ liệu, người dùng không  thể thay đổi dữ liệu?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Câu 114</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Loại ROM nào mà dùng có thể nạp dữ liệu bằng thiết bị sử dụng tia cực tím?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Câu 115</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Loại ROM nào mà dùng có thể nạp dữ liệu bằng  điện?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 116: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Trong các máy tính hiện đại, thiết bị nhớ nào trong số các loại bộ nhớ sau thường có dung lượng nhỏ nhất?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Câu 117</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Trong các máy tính hiện đại, thiết bị nhớ nào trong số các loại bộ nhớ sau thường có dung lượng lớn nhất?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 118: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Trong các máy tính hiện đại, thiết bị nhớ nào trong số các loại bộ nhớ sau có thời gian truy nhập nhỏ nhất?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 119: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Trong các máy tính hiện đại, thiết bị nhớ nào trong số các loại bộ nhớ sau có tốc độ truy nhập thấp nhất?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 120: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Chương trình BIOS lưu trong ROM CMOS được gọi  là:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 121: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Địa chỉ OFFSET trong bộ vi xử lý Intel 8086 có kích thước bằng bao nhiêu?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Câu 122</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Dung lượng bộ nhớ Cache của máy tính sử dụng Bộ vi xử lý 80386 bằng bao nhiêu?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Câu 123</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Phát biểu nào sau đây đúng?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 124: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Phát biểu nào sau đây đúng?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 125: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bộ nhớ SRAM lưu trữ thông tin bằng gì?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 126: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bộ nhớ DRAM cần các mạch bên ngoài để thực hiện chức năng  gì?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 127: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Một bộ nhớ 64 Kbit có thể được tổ chức theo kiểu  nào?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Câu 128</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Tại sao bộ nhớ DRAM phải được làm tươi?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 129: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Tại sao với các hệ thống bộ nhớ dung lượng rất nhỏ, người ta không sử dụng bộ nhớ loại DRAM mà thường dùng loại  SRAM?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 131: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cơ chế quản lý bộ nhớ ảo trong máy tính sử dụng các bộ vi xử lý Intel 80x86 cho phép thực hiện các điều sau, loại trừ:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Câu 130</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Bộ nhớ DRAM lưu trữ thông tin bằng gì?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Câu 132</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Trong chế độ địa  chỉ ảo, bộ vi xử lý Intel 80286 có thể quản lý được  không gian nhớ có dung lượng bằng bao nhiêu?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 133: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Trong chế độ địa chỉ ảo của các bộ vi xử lý Intel 80x86, việc truy nhập dữ liệu trên các bộ nhớ ngoài có dung lượng vượt quá bộ nhớ thực của máy tính được thực hiện nhờ:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 134: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Trong chế độ địa chỉ ảo của các bộ vi xử lý Intel 80x86, dữ liệu cần truy nhập trên các bộ nhớ ngoài được tráo đổi với:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 135: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Các bộ nhớ RAM-ROM khác với các bộ nhớ ngoài ở những điều sau,  ngoại trừ:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 136:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Hãy chỉ ra khẳng định sai trong các khẳng định sau  đây:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 137:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đặc điểm của bộ nhớ ngoài so với bộ nhớ trong của máy tính  là:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 138: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Một ưu điểm của bộ nhớ ngoài so với bộ nhớ trong của máy tính  là:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 139: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>So với bộ nhớ trong, bộ nhớ ngoài của máy tính có ưu điểm  là:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Câu 140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Để lưu trữ số hexa FF cần sử dụng tối thiểu bao nhiêu  Flip-Flop?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 141: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Đơn vị quản lý bộ nhớ trong máy tính có thể là:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Câu 142</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Bộ vi xử lý nào sau đây của Intel hỗ trợ chế độ quản lý bộ nhớ ảo?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 143: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bộ vi xử lý nào sau đây của Intel không hỗ trợ chế độ quản lý bộ nhớ  ảo?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Câu 144</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Trong chế độ địa chỉ thực, bộ vi xử lý Intel 80286 quản lý địa chỉ vật lý  bao nhiêu bit?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 145: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Trong chế độ địa chỉ ảo, bộ vi xử lý Intel 80286 quản lý địa chỉ logic bao nhiêu bit?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 146: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Thanh ghi quản lý quản lý mảng nhớ trong bộ vi xử lý Intel 8086 có độ rộng bằng bao nhiêu?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 147: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Địa chỉ OFFSET của bộ vi xử lý Intel 8086 có độ rộng gồm bao nhiêu  bit?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 148: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Khối điều khiển bộ nhớ Cache (Cache Memory Controller) có chức năng là:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 149: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Một mảng nhớ trong bộ xi xử lý 8086/8088 do các thanh ghi mảng quản    lý có kích thước bằng bao nhiêu bằng bao nhiêu?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Câu 150: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bộ điều khiển DMA (DMAC) tham gia quản lý bộ nhớ trong trường hợp nào?</t>
-    </r>
-  </si>
-  <si>
-    <t>C. 9K × 8 C.  16K × 5</t>
+      <t xml:space="preserve">24 </t>
+    </r>
+  </si>
+  <si>
+    <t>D. 30 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 16 </t>
+  </si>
+  <si>
+    <t>B.  20 *</t>
   </si>
 </sst>
 </file>
@@ -12956,15 +12962,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A743"/>
+  <dimension ref="A1:A745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A629" sqref="A629"/>
+    <sheetView tabSelected="1" topLeftCell="A566" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A715" sqref="A715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="123.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="181.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="55.42578125" style="6" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
@@ -13451,22 +13457,22 @@
     </row>
     <row r="97" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
@@ -13486,12 +13492,12 @@
     </row>
     <row r="104" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
@@ -14696,7 +14702,7 @@
     </row>
     <row r="346" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -14721,7 +14727,7 @@
     </row>
     <row r="351" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="352" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -14746,7 +14752,7 @@
     </row>
     <row r="356" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -14771,7 +14777,7 @@
     </row>
     <row r="361" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -14796,7 +14802,7 @@
     </row>
     <row r="366" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="367" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -14821,7 +14827,7 @@
     </row>
     <row r="371" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="372" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -14846,7 +14852,7 @@
     </row>
     <row r="376" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -14871,7 +14877,7 @@
     </row>
     <row r="381" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -14896,7 +14902,7 @@
     </row>
     <row r="386" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="387" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -14921,7 +14927,7 @@
     </row>
     <row r="391" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -14946,7 +14952,7 @@
     </row>
     <row r="396" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="397" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -14971,7 +14977,7 @@
     </row>
     <row r="401" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="402" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -14996,7 +15002,7 @@
     </row>
     <row r="406" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="407" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15021,7 +15027,7 @@
     </row>
     <row r="411" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="412" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15046,7 +15052,7 @@
     </row>
     <row r="416" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="417" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15071,7 +15077,7 @@
     </row>
     <row r="421" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="422" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15096,7 +15102,7 @@
     </row>
     <row r="426" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="427" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15121,7 +15127,7 @@
     </row>
     <row r="431" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A431" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="432" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15146,7 +15152,7 @@
     </row>
     <row r="436" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="437" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15171,7 +15177,7 @@
     </row>
     <row r="441" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A441" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="442" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15196,7 +15202,7 @@
     </row>
     <row r="446" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A446" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="447" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15221,7 +15227,7 @@
     </row>
     <row r="451" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A451" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="452" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15246,7 +15252,7 @@
     </row>
     <row r="456" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A456" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="457" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15271,7 +15277,7 @@
     </row>
     <row r="461" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A461" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="462" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15296,7 +15302,7 @@
     </row>
     <row r="466" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A466" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="467" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15321,7 +15327,7 @@
     </row>
     <row r="471" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A471" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="472" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15346,7 +15352,7 @@
     </row>
     <row r="476" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A476" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="477" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15371,7 +15377,7 @@
     </row>
     <row r="481" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A481" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="482" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15396,7 +15402,7 @@
     </row>
     <row r="486" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A486" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="487" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15421,7 +15427,7 @@
     </row>
     <row r="491" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A491" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="492" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15446,7 +15452,7 @@
     </row>
     <row r="496" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A496" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="497" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15471,7 +15477,7 @@
     </row>
     <row r="501" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A501" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="502" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15496,7 +15502,7 @@
     </row>
     <row r="506" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A506" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="507" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15521,7 +15527,7 @@
     </row>
     <row r="511" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A511" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="512" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15546,7 +15552,7 @@
     </row>
     <row r="516" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A516" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="517" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15571,7 +15577,7 @@
     </row>
     <row r="521" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A521" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="522" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15596,7 +15602,7 @@
     </row>
     <row r="526" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A526" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="527" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15621,7 +15627,7 @@
     </row>
     <row r="531" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A531" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="532" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15646,7 +15652,7 @@
     </row>
     <row r="536" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A536" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="537" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15671,7 +15677,7 @@
     </row>
     <row r="541" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A541" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="542" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15696,7 +15702,7 @@
     </row>
     <row r="546" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A546" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="547" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15721,7 +15727,7 @@
     </row>
     <row r="551" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A551" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="552" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15746,7 +15752,7 @@
     </row>
     <row r="556" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A556" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="557" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15771,7 +15777,7 @@
     </row>
     <row r="561" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A561" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="562" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15796,7 +15802,7 @@
     </row>
     <row r="566" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A566" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="567" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15821,7 +15827,7 @@
     </row>
     <row r="571" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A571" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="572" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15846,7 +15852,7 @@
     </row>
     <row r="576" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A576" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="577" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15871,7 +15877,7 @@
     </row>
     <row r="581" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A581" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="582" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15896,7 +15902,7 @@
     </row>
     <row r="586" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A586" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="587" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15921,7 +15927,7 @@
     </row>
     <row r="591" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A591" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="592" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15946,7 +15952,7 @@
     </row>
     <row r="596" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A596" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="597" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15971,7 +15977,7 @@
     </row>
     <row r="601" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A601" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="602" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -15996,7 +16002,7 @@
     </row>
     <row r="606" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A606" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="607" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16021,7 +16027,7 @@
     </row>
     <row r="611" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A611" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="612" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16046,7 +16052,7 @@
     </row>
     <row r="616" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A616" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="617" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16071,7 +16077,7 @@
     </row>
     <row r="621" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A621" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="622" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16096,7 +16102,7 @@
     </row>
     <row r="626" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A626" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="627" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16111,7 +16117,7 @@
     </row>
     <row r="629" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="630" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16121,7 +16127,7 @@
     </row>
     <row r="631" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A631" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="632" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16146,7 +16152,7 @@
     </row>
     <row r="636" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A636" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="637" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16171,7 +16177,7 @@
     </row>
     <row r="641" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A641" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="642" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16196,7 +16202,7 @@
     </row>
     <row r="646" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A646" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="647" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16221,7 +16227,7 @@
     </row>
     <row r="651" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A651" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="652" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16246,7 +16252,7 @@
     </row>
     <row r="656" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A656" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="657" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16271,7 +16277,7 @@
     </row>
     <row r="661" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A661" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="662" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16296,7 +16302,7 @@
     </row>
     <row r="666" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A666" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="667" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16321,7 +16327,7 @@
     </row>
     <row r="671" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A671" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="672" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16346,7 +16352,7 @@
     </row>
     <row r="676" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A676" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="677" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16371,7 +16377,7 @@
     </row>
     <row r="681" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A681" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="682" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16396,7 +16402,7 @@
     </row>
     <row r="686" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A686" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="687" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16421,7 +16427,7 @@
     </row>
     <row r="691" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A691" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="692" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16446,7 +16452,7 @@
     </row>
     <row r="696" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A696" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="697" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16471,7 +16477,7 @@
     </row>
     <row r="701" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A701" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="702" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16496,7 +16502,7 @@
     </row>
     <row r="706" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A706" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="707" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -16521,167 +16527,177 @@
     </row>
     <row r="711" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A711" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="712" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
-        <v>517</v>
+        <v>621</v>
       </c>
     </row>
     <row r="713" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
-        <v>518</v>
+        <v>622</v>
       </c>
     </row>
     <row r="714" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="715" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A715" s="7" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="716" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A716" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A715" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A716" s="7" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="717" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="718" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="719" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A719" s="7" t="s">
-        <v>615</v>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A719" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="720" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="721" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A721" s="1" t="s">
-        <v>435</v>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A721" s="7" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="722" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="723" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="724" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A724" s="7" t="s">
-        <v>616</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A724" s="1" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="725" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="726" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A726" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A726" s="7" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="727" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="728" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="729" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A729" s="7" t="s">
-        <v>617</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A729" s="1" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="730" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="731" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A731" s="1" t="s">
-        <v>524</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A731" s="7" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="732" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="733" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="734" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A734" s="7" t="s">
-        <v>618</v>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A734" s="1" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="735" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="736" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A736" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A736" s="7" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="737" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="738" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="739" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A739" s="7" t="s">
-        <v>619</v>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A739" s="1" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="740" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="741" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A741" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A741" s="7" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="742" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="743" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A744" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A745" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
